--- a/atoka/atoka/spiders/output/error.xlsx
+++ b/atoka/atoka/spiders/output/error.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>too many results: 40276</t>
+          <t>too many results: 40277</t>
         </is>
       </c>
     </row>

--- a/atoka/atoka/spiders/output/error.xlsx
+++ b/atoka/atoka/spiders/output/error.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>too many results: 40277</t>
+          <t>too many results: 40248</t>
         </is>
       </c>
     </row>
